--- a/core/seed_products_productvariation.xlsx
+++ b/core/seed_products_productvariation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420BE9F5-6167-4A97-8ECB-AC58983ABF3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44DF2D-2B6A-4C76-AC57-158F90E86661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>NAME</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>CONSUMABLE</t>
+  </si>
+  <si>
+    <t>QUANTITY ALERT</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,7 +1052,7 @@
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1077,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1091,8 +1097,11 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1108,8 +1117,11 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1142,8 +1154,11 @@
       <c r="G5">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1159,8 +1174,11 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1176,8 +1194,11 @@
       <c r="G7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1193,8 +1214,11 @@
       <c r="G8">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1210,8 +1234,11 @@
       <c r="G9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1224,8 +1251,11 @@
       <c r="F10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1241,8 +1271,11 @@
       <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1258,8 +1291,11 @@
       <c r="G12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1275,8 +1311,11 @@
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1292,8 +1331,11 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1309,8 +1351,11 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1326,8 +1371,11 @@
       <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1343,8 +1391,11 @@
       <c r="G17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1360,8 +1411,11 @@
       <c r="G18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1377,8 +1431,11 @@
       <c r="G19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1394,8 +1451,11 @@
       <c r="G20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1411,8 +1471,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1427,6 +1490,9 @@
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/core/seed_products_productvariation.xlsx
+++ b/core/seed_products_productvariation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C44DF2D-2B6A-4C76-AC57-158F90E86661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE0042-85CE-48BD-8B9A-B09A28529A9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="222">
   <si>
     <t>NAME</t>
   </si>
@@ -197,6 +197,495 @@
   </si>
   <si>
     <t>QUANTITY ALERT</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Adderall</t>
+  </si>
+  <si>
+    <t>Amlodipine</t>
+  </si>
+  <si>
+    <t>Ativan</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>Benzonatate</t>
+  </si>
+  <si>
+    <t>Biktarvy</t>
+  </si>
+  <si>
+    <t>Botox</t>
+  </si>
+  <si>
+    <t>Brilinta</t>
+  </si>
+  <si>
+    <t>Bunavail</t>
+  </si>
+  <si>
+    <t>Buprenorphine</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin</t>
+  </si>
+  <si>
+    <t>Citalopram</t>
+  </si>
+  <si>
+    <t>Clindamycin</t>
+  </si>
+  <si>
+    <t>Clonazepam</t>
+  </si>
+  <si>
+    <t>Cyclobenzaprine</t>
+  </si>
+  <si>
+    <t>Cymbalta</t>
+  </si>
+  <si>
+    <t>Doxycycline</t>
+  </si>
+  <si>
+    <t>Dupixent</t>
+  </si>
+  <si>
+    <t>Entresto</t>
+  </si>
+  <si>
+    <t>Entyvio</t>
+  </si>
+  <si>
+    <t>Farxiga</t>
+  </si>
+  <si>
+    <t>Gabapentin</t>
+  </si>
+  <si>
+    <t>Gemtesa</t>
+  </si>
+  <si>
+    <t>Humira</t>
+  </si>
+  <si>
+    <t>Hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>Imbruvica</t>
+  </si>
+  <si>
+    <t>Januvia</t>
+  </si>
+  <si>
+    <t>Jardiance</t>
+  </si>
+  <si>
+    <t>Lexapro</t>
+  </si>
+  <si>
+    <t>Lisinopril</t>
+  </si>
+  <si>
+    <t>Lofexidine</t>
+  </si>
+  <si>
+    <t>Loratadine</t>
+  </si>
+  <si>
+    <t>Lyrica</t>
+  </si>
+  <si>
+    <t>Melatonin</t>
+  </si>
+  <si>
+    <t>Meloxicam</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>Methadone</t>
+  </si>
+  <si>
+    <t>Methotrexate</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Mounjaro</t>
+  </si>
+  <si>
+    <t>Naltrexone</t>
+  </si>
+  <si>
+    <t>Naproxen</t>
+  </si>
+  <si>
+    <t>Narcan</t>
+  </si>
+  <si>
+    <t>Nurtec</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>Opdivo</t>
+  </si>
+  <si>
+    <t>Otezla</t>
+  </si>
+  <si>
+    <t>Ozempic</t>
+  </si>
+  <si>
+    <t>Pantoprazole</t>
+  </si>
+  <si>
+    <t>Plan B</t>
+  </si>
+  <si>
+    <t>Prednisone</t>
+  </si>
+  <si>
+    <t>Probuphine</t>
+  </si>
+  <si>
+    <t>Qulipta</t>
+  </si>
+  <si>
+    <t>Quviviq</t>
+  </si>
+  <si>
+    <t>Rybelsus</t>
+  </si>
+  <si>
+    <t>Sublocade</t>
+  </si>
+  <si>
+    <t>Sunlenca</t>
+  </si>
+  <si>
+    <t>Tepezza</t>
+  </si>
+  <si>
+    <t>Tramadol</t>
+  </si>
+  <si>
+    <t>Trazodone</t>
+  </si>
+  <si>
+    <t>Vraylar</t>
+  </si>
+  <si>
+    <t>Wegovy</t>
+  </si>
+  <si>
+    <t>Xanax</t>
+  </si>
+  <si>
+    <t>Yervoy</t>
+  </si>
+  <si>
+    <t>Zepbound</t>
+  </si>
+  <si>
+    <t>Zubsolv</t>
+  </si>
+  <si>
+    <t>MILLIGRAMS</t>
+  </si>
+  <si>
+    <t>PACKS</t>
+  </si>
+  <si>
+    <t>PIECES</t>
+  </si>
+  <si>
+    <t>Fentanyl</t>
+  </si>
+  <si>
+    <t>Amitriptyline A</t>
+  </si>
+  <si>
+    <t>Amitriptyline B</t>
+  </si>
+  <si>
+    <t>Amoxicillin A</t>
+  </si>
+  <si>
+    <t>Amoxicillin B</t>
+  </si>
+  <si>
+    <t>Amoxicillin C</t>
+  </si>
+  <si>
+    <t>Ibuprofen A</t>
+  </si>
+  <si>
+    <t>Ibuprofen B</t>
+  </si>
+  <si>
+    <t>Ibuprofen C</t>
+  </si>
+  <si>
+    <t>Viagra A</t>
+  </si>
+  <si>
+    <t>Viagra B</t>
+  </si>
+  <si>
+    <t>PV-022</t>
+  </si>
+  <si>
+    <t>PV-023</t>
+  </si>
+  <si>
+    <t>PV-024</t>
+  </si>
+  <si>
+    <t>PV-025</t>
+  </si>
+  <si>
+    <t>PV-026</t>
+  </si>
+  <si>
+    <t>PV-027</t>
+  </si>
+  <si>
+    <t>PV-028</t>
+  </si>
+  <si>
+    <t>PV-029</t>
+  </si>
+  <si>
+    <t>PV-030</t>
+  </si>
+  <si>
+    <t>PV-031</t>
+  </si>
+  <si>
+    <t>PV-032</t>
+  </si>
+  <si>
+    <t>PV-033</t>
+  </si>
+  <si>
+    <t>PV-034</t>
+  </si>
+  <si>
+    <t>PV-035</t>
+  </si>
+  <si>
+    <t>PV-036</t>
+  </si>
+  <si>
+    <t>PV-037</t>
+  </si>
+  <si>
+    <t>PV-038</t>
+  </si>
+  <si>
+    <t>PV-039</t>
+  </si>
+  <si>
+    <t>PV-040</t>
+  </si>
+  <si>
+    <t>PV-041</t>
+  </si>
+  <si>
+    <t>PV-042</t>
+  </si>
+  <si>
+    <t>PV-043</t>
+  </si>
+  <si>
+    <t>PV-044</t>
+  </si>
+  <si>
+    <t>PV-045</t>
+  </si>
+  <si>
+    <t>PV-046</t>
+  </si>
+  <si>
+    <t>PV-047</t>
+  </si>
+  <si>
+    <t>PV-048</t>
+  </si>
+  <si>
+    <t>PV-049</t>
+  </si>
+  <si>
+    <t>PV-050</t>
+  </si>
+  <si>
+    <t>PV-051</t>
+  </si>
+  <si>
+    <t>PV-052</t>
+  </si>
+  <si>
+    <t>PV-053</t>
+  </si>
+  <si>
+    <t>PV-054</t>
+  </si>
+  <si>
+    <t>PV-055</t>
+  </si>
+  <si>
+    <t>PV-056</t>
+  </si>
+  <si>
+    <t>PV-057</t>
+  </si>
+  <si>
+    <t>PV-058</t>
+  </si>
+  <si>
+    <t>PV-059</t>
+  </si>
+  <si>
+    <t>PV-060</t>
+  </si>
+  <si>
+    <t>PV-061</t>
+  </si>
+  <si>
+    <t>PV-062</t>
+  </si>
+  <si>
+    <t>PV-063</t>
+  </si>
+  <si>
+    <t>PV-064</t>
+  </si>
+  <si>
+    <t>PV-065</t>
+  </si>
+  <si>
+    <t>PV-066</t>
+  </si>
+  <si>
+    <t>PV-067</t>
+  </si>
+  <si>
+    <t>PV-068</t>
+  </si>
+  <si>
+    <t>PV-069</t>
+  </si>
+  <si>
+    <t>PV-070</t>
+  </si>
+  <si>
+    <t>PV-071</t>
+  </si>
+  <si>
+    <t>PV-072</t>
+  </si>
+  <si>
+    <t>PV-073</t>
+  </si>
+  <si>
+    <t>PV-074</t>
+  </si>
+  <si>
+    <t>PV-075</t>
+  </si>
+  <si>
+    <t>PV-076</t>
+  </si>
+  <si>
+    <t>PV-077</t>
+  </si>
+  <si>
+    <t>PV-078</t>
+  </si>
+  <si>
+    <t>PV-079</t>
+  </si>
+  <si>
+    <t>PV-080</t>
+  </si>
+  <si>
+    <t>PV-081</t>
+  </si>
+  <si>
+    <t>PV-082</t>
+  </si>
+  <si>
+    <t>PV-083</t>
+  </si>
+  <si>
+    <t>PV-084</t>
+  </si>
+  <si>
+    <t>PV-085</t>
+  </si>
+  <si>
+    <t>PV-086</t>
+  </si>
+  <si>
+    <t>PV-087</t>
+  </si>
+  <si>
+    <t>PV-088</t>
+  </si>
+  <si>
+    <t>PV-089</t>
+  </si>
+  <si>
+    <t>PV-090</t>
+  </si>
+  <si>
+    <t>PV-091</t>
+  </si>
+  <si>
+    <t>PV-092</t>
+  </si>
+  <si>
+    <t>PV-093</t>
+  </si>
+  <si>
+    <t>PV-094</t>
+  </si>
+  <si>
+    <t>PV-095</t>
+  </si>
+  <si>
+    <t>PV-096</t>
+  </si>
+  <si>
+    <t>PV-097</t>
+  </si>
+  <si>
+    <t>PV-098</t>
+  </si>
+  <si>
+    <t>PV-099</t>
+  </si>
+  <si>
+    <t>PV-100</t>
+  </si>
+  <si>
+    <t>PV-101</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,16 +1578,16 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="I2">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1109,16 +1598,16 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1129,13 +1618,16 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
+      <c r="I4">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1146,16 +1638,16 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G5">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1166,16 +1658,16 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1183,19 +1675,19 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I7">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1203,19 +1695,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G8">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I8">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1223,19 +1715,19 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1243,16 +1735,19 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1260,19 +1755,19 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,19 +1775,19 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1300,19 +1795,19 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="I13">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1320,19 +1815,19 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I14">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1340,19 +1835,19 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1360,19 +1855,19 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="I16">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1380,19 +1875,19 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="I17">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1400,19 +1895,19 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="I18">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1420,19 +1915,19 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I19">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1440,19 +1935,19 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="G20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I20">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1460,19 +1955,19 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1480,18 +1975,1597 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37">
+        <v>250</v>
+      </c>
+      <c r="I37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38">
+        <v>400</v>
+      </c>
+      <c r="I38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="I46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>70</v>
+      </c>
+      <c r="I47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="I48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49">
+        <v>350</v>
+      </c>
+      <c r="I49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50">
+        <v>350</v>
+      </c>
+      <c r="I50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="I52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53">
+        <v>350</v>
+      </c>
+      <c r="I53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55">
+        <v>150</v>
+      </c>
+      <c r="I55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56">
+        <v>350</v>
+      </c>
+      <c r="I56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>70</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65">
+        <v>500</v>
+      </c>
+      <c r="I65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68">
+        <v>500</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69">
+        <v>500</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78">
+        <v>500</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79">
+        <v>50</v>
+      </c>
+      <c r="I79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84">
+        <v>60</v>
+      </c>
+      <c r="I84">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>150</v>
+      </c>
+      <c r="I85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88">
+        <v>150</v>
+      </c>
+      <c r="I88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>53</v>
+      </c>
+      <c r="I90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>60</v>
+      </c>
+      <c r="I98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F102" t="s">
         <v>54</v>
       </c>
-      <c r="G22">
+      <c r="G102">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I102">
         <v>500</v>
       </c>
     </row>
